--- a/Program4/src/Sorting Times.xlsx
+++ b/Program4/src/Sorting Times.xlsx
@@ -78,6 +78,7 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -98,6 +99,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
@@ -174,7 +176,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F3" activeCellId="0" pane="topLeft" sqref="F3"/>
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.35"/>
@@ -213,6 +215,10 @@
         <f aca="false">AVERAGE(A9:A18)</f>
         <v>18.3</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(D9:D18)</f>
+        <v>18.6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
@@ -222,6 +228,10 @@
         <f aca="false">AVERAGE(B9:B18)</f>
         <v>18.1</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">AVERAGE(E9:E18)</f>
+        <v>15.1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
@@ -231,6 +241,10 @@
         <f aca="false">AVERAGE(C9:C18)</f>
         <v>17.2</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">AVERAGE(F9:F18)</f>
+        <v>15.5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
@@ -276,6 +290,15 @@
       <c r="C9" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
@@ -287,6 +310,15 @@
       <c r="C10" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
@@ -298,6 +330,15 @@
       <c r="C11" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
@@ -309,6 +350,15 @@
       <c r="C12" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
@@ -320,6 +370,15 @@
       <c r="C13" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
@@ -331,6 +390,15 @@
       <c r="C14" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
@@ -342,6 +410,15 @@
       <c r="C15" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
@@ -353,6 +430,15 @@
       <c r="C16" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
@@ -364,6 +450,15 @@
       <c r="C17" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
@@ -374,6 +469,15 @@
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
